--- a/Competitive analysis.xlsx
+++ b/Competitive analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awsed\Documents\GitHub\is218Fall20232Water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E58FB3E-59BB-4477-BBD9-4AD13D384F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9B518-3E16-4CFF-9223-C5964E1955BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{EAAB4153-2F4A-475F-B166-F16E9D922B45}"/>
   </bookViews>

--- a/Competitive analysis.xlsx
+++ b/Competitive analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awsed\Documents\GitHub\is218Fall20232Water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9B518-3E16-4CFF-9223-C5964E1955BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B425C-06C7-461C-A0D2-4CCC0874F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{EAAB4153-2F4A-475F-B166-F16E9D922B45}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Archtype</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Liquid Death</t>
   </si>
   <si>
-    <t>Company 3</t>
-  </si>
-  <si>
     <t>FreeWater</t>
   </si>
   <si>
@@ -74,17 +71,35 @@
     <t>Caregiver</t>
   </si>
   <si>
-    <t>Free water that is paid for</t>
+    <t>Dasani</t>
+  </si>
+  <si>
+    <t>Innocent</t>
+  </si>
+  <si>
+    <t>FREE koozie 2-pack with your first purchase of $25 or more.</t>
+  </si>
+  <si>
+    <t>Recyclability</t>
+  </si>
+  <si>
+    <t>Free water that is paid for/Sells ad space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,8 +125,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,14 +453,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -444,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -455,18 +480,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -496,5 +530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>